--- a/ONCHO/Impact Assessments/Cameroon/fr_en/cm_oncho_pre_stop_5_202309_place_piqure_fr_en.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/fr_en/cm_oncho_pre_stop_5_202309_place_piqure_fr_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E1B9E-73C5-4E68-98B9-5153E4D3098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389C70B-5FEB-47AA-84C6-3C7D3D56B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -97,9 +97,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>Code Opérateur/Equipe</t>
   </si>
   <si>
@@ -121,15 +118,6 @@
     <t>Additional notes</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>reav_only</t>
   </si>
   <si>
@@ -160,18 +148,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>Faible</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Insupportable</t>
-  </si>
-  <si>
-    <t>intensite</t>
-  </si>
-  <si>
     <t>Région</t>
   </si>
   <si>
@@ -235,16 +211,61 @@
     <t>${v_village} != 'Autre'</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO - 5 Place des piqûres V2</t>
-  </si>
-  <si>
-    <t>cm_oncho_pre_stop_5_202309_place_piqure_v2</t>
-  </si>
-  <si>
     <t>Entrer le nom du village de remplassement</t>
   </si>
   <si>
     <t>Code du village remplassé</t>
+  </si>
+  <si>
+    <t>label::English</t>
+  </si>
+  <si>
+    <t>hint::English</t>
+  </si>
+  <si>
+    <t>constraint_message::English</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_5_202309_place_piqure_fr_en_v3</t>
+  </si>
+  <si>
+    <t>(Oct 2023) ONCHO - 5 Place des piqûres V3 (EN - FR)</t>
+  </si>
+  <si>
+    <t>Code Operator/Team</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Enter the name of the village</t>
+  </si>
+  <si>
+    <t>Village code</t>
+  </si>
+  <si>
+    <t>Replaced village code</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>School code</t>
+  </si>
+  <si>
+    <t>Take a photo of the place with the most stings</t>
+  </si>
+  <si>
+    <t>Take a second photo</t>
+  </si>
+  <si>
+    <t>Take a third photo</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
 </sst>
 </file>
@@ -295,15 +316,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,11 +344,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,10 +378,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +709,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,274 +721,508 @@
     <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="5"/>
-    <col min="7" max="7" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="5"/>
-    <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="5"/>
+    <col min="5" max="5" width="45.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="5"/>
+    <col min="9" max="9" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="5"/>
+    <col min="13" max="13" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -948,21 +1240,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,72 +1262,44 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1057,13 +1321,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
@@ -1080,13 +1344,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
